--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11881.10815983508</v>
+        <v>2364340.523807182</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11881.10815983508</v>
+        <v>2364340.523807182</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28672.70029427738</v>
+        <v>1722370.252504717</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28672.70029427738</v>
+        <v>1722370.252504717</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113992410.424221</v>
+        <v>46391693.20505236</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11576.4062644964</v>
+        <v>1261536.779377824</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21118.40159135007</v>
+        <v>2174272.908483809</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30660.39691820373</v>
+        <v>3087009.037589795</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41214.90692203243</v>
+        <v>3945200.1939546</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51769.4169258611</v>
+        <v>4803391.350319405</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61422.11066223466</v>
+        <v>5715651.44656978</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>71075.29165616132</v>
+        <v>6628008.507073219</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80727.31997503326</v>
+        <v>7540713.354911185</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>91047.33690967222</v>
+        <v>8377100.408895873</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101464.9942480119</v>
+        <v>9235208.595775668</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111881.6564887237</v>
+        <v>10093118.75822753</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>122298.2780351211</v>
+        <v>10951028.92067941</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>132714.8990109787</v>
+        <v>11808939.08313128</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>143131.5199868364</v>
+        <v>12666849.24558315</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>153556.0702548086</v>
+        <v>13524038.43290119</v>
       </c>
     </row>
   </sheetData>
